--- a/public/archivos/desembolsos/desembolso_1265874587.xlsx
+++ b/public/archivos/desembolsos/desembolso_1265874587.xlsx
@@ -1,36 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5704D-92CC-4ACF-8B92-2EBB537DC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Nombres</t>
   </si>
@@ -80,24 +65,31 @@
     <t>Banco de Bogotá</t>
   </si>
   <si>
-    <t>SI</t>
+    <t>Premium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0_-"/>
+    <numFmt numFmtId="164" formatCode="$#,##0_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -112,36 +104,30 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -431,20 +417,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="30" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
+    <col min="6" max="6" width="30" customWidth="true" style="0"/>
+    <col min="7" max="7" width="30" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30" customWidth="true" style="0"/>
+    <col min="9" max="9" width="30" customWidth="true" style="0"/>
+    <col min="10" max="10" width="30" customWidth="true" style="0"/>
+    <col min="11" max="11" width="30" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -504,24 +502,32 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>100000000</v>
+        <v>100000000.0</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>18.0</v>
       </c>
       <c r="K2" s="3">
-        <v>14170000</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
+        <v>18000000.0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>